--- a/Whatsapp Chat Testcases.xlsx
+++ b/Whatsapp Chat Testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0421E2-F693-4226-B4F3-D91E87D97168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8849A5F7-DE49-4FD8-B769-A5B3476E9DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E95FB01-0813-4BA7-AE40-57E3729E9895}"/>
   </bookViews>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A3CF49-B2CE-49C0-A944-569200B326B6}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,7 +820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -828,7 +828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -869,7 +869,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
